--- a/STEPS_data_analysis/excel_templates/template_data_fromR.xlsx
+++ b/STEPS_data_analysis/excel_templates/template_data_fromR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasmalla/Documents/Transferred files/Data/data part 4/WHO/Task order 3/infographic report generation/excel_templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasmalla/Documents/Transferred files/Data/data part 4/WHO/Task order 3/infographic report generation v2/excel_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DA90A5-D765-4943-80C1-41C730EDFB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55218623-D913-DD45-8AF1-3F9DD01AA616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29060" yWindow="500" windowWidth="14220" windowHeight="20160" xr2:uid="{8873D99E-472C-1247-B72B-045F9E2BE3D4}"/>
+    <workbookView xWindow="53160" yWindow="620" windowWidth="14040" windowHeight="20980" xr2:uid="{8873D99E-472C-1247-B72B-045F9E2BE3D4}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="381">
   <si>
     <t>ind_level</t>
   </si>
@@ -51,12 +51,6 @@
     <t>col2</t>
   </si>
   <si>
-    <t>Tobacco</t>
-  </si>
-  <si>
-    <t>Smoking prevalence</t>
-  </si>
-  <si>
     <t>of men</t>
   </si>
   <si>
@@ -81,21 +75,6 @@
     <t>have tried to stop smoking during the past 12 months</t>
   </si>
   <si>
-    <t>report that they are giving advice to stop smoking by a health care professional</t>
-  </si>
-  <si>
-    <t>electronic cigarettes use prevalence</t>
-  </si>
-  <si>
-    <t>prevalence of vipe 18-44</t>
-  </si>
-  <si>
-    <t>prevalence of vipe 45-69</t>
-  </si>
-  <si>
-    <t>prevalence vipe by sex:</t>
-  </si>
-  <si>
     <t>male aged 18-44 years</t>
   </si>
   <si>
@@ -106,9 +85,6 @@
   </si>
   <si>
     <t>female aged 45-69 years</t>
-  </si>
-  <si>
-    <t>current users vape daily</t>
   </si>
   <si>
     <t>Alcohol Use</t>
@@ -140,9 +116,6 @@
     <t>of women consumed 6 or more drinks on one occasion</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean number of standard drinks on one occasion is </t>
-  </si>
-  <si>
     <t>The highest prevalence
 of heavy episodic drinking is among men aged
 18-44 years</t>
@@ -151,12 +124,6 @@
     <t>Diet</t>
   </si>
   <si>
-    <t xml:space="preserve">per week on average people eat fruit, with 1.3 servings consumed on average per day </t>
-  </si>
-  <si>
-    <t>per week on average people eat vegetables, with 1.4 servings con- sumed on average per day</t>
-  </si>
-  <si>
     <t>of the population eat less than 5 servings of fruit and/or vegetables per day</t>
   </si>
   <si>
@@ -169,10 +136,6 @@
     <t>of those aged 45-69 years do not eat any fruits or vegetables</t>
   </si>
   <si>
-    <t>of people always, or often,
-eat processed foods high in salt</t>
-  </si>
-  <si>
     <t>of the population always, or often, add salt or salty sauce to their food before or whilst eating</t>
   </si>
   <si>
@@ -194,9 +157,6 @@
     <t>of men are not engaging in vigorous physical activity</t>
   </si>
   <si>
-    <t>of the population do not engage in any transport related activity e.e. walk or cycle as part of commute</t>
-  </si>
-  <si>
     <t>do no work-related activity</t>
   </si>
   <si>
@@ -233,36 +193,15 @@
     <t>Raised Blood Pressure</t>
   </si>
   <si>
-    <t>have been diagnosed with raised blood pressure</t>
-  </si>
-  <si>
     <t>Of those</t>
   </si>
   <si>
     <t>of the population have stage 2 high blood pressure, including those on medication</t>
   </si>
   <si>
-    <t>previously been diagnosed not on medication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diagnosed and  on medication, however their BP was not controlled </t>
-  </si>
-  <si>
     <t xml:space="preserve">diagnosed and  on medication, with  their BP  controlled </t>
   </si>
   <si>
-    <t>are undiagnosed</t>
-  </si>
-  <si>
-    <t>undiagnosed men</t>
-  </si>
-  <si>
-    <t>undiagnosed women</t>
-  </si>
-  <si>
-    <t>of the population either have raised blood pressure or are on medication for it.</t>
-  </si>
-  <si>
     <t>Among those 18-44 years</t>
   </si>
   <si>
@@ -272,42 +211,15 @@
     <t>Raised Blood Sugar</t>
   </si>
   <si>
-    <t>of the population were previously diagnosed with raised blood sugar or diabetes</t>
-  </si>
-  <si>
     <t>of the population report never having their blood sugar level measured</t>
   </si>
   <si>
-    <t>Among those previously diagnosed with diabetes</t>
-  </si>
-  <si>
-    <t>have received at least two HBA1C tests in the past year as part of their diabetes control</t>
-  </si>
-  <si>
-    <t>have never had an eye exam</t>
-  </si>
-  <si>
-    <t>have never had a foot exam</t>
-  </si>
-  <si>
-    <t>Among the population as a whole</t>
-  </si>
-  <si>
     <t>have raised blood glucose and on medication</t>
   </si>
   <si>
-    <t>are diagnosed and not on medication</t>
-  </si>
-  <si>
-    <t>have raised blood glucose but undiagnosed</t>
-  </si>
-  <si>
     <t>Raised Total Cholesterol</t>
   </si>
   <si>
-    <t>have never had their cholesterol measured</t>
-  </si>
-  <si>
     <t>have previously been diagnosed with raised cholesterol</t>
   </si>
   <si>
@@ -335,15 +247,6 @@
     <t>Cardiovascular Disease</t>
   </si>
   <si>
-    <t>report having had a heart attack or chest pain from heart disease (angina) or a stroke</t>
-  </si>
-  <si>
-    <t>This is higher among those aged 45-69 years</t>
-  </si>
-  <si>
-    <t>of the population aged 45-69 years report taking aspirin to prevent or treat heart disease</t>
-  </si>
-  <si>
     <t>Lifestyle Advice</t>
   </si>
   <si>
@@ -353,9 +256,6 @@
     <t>have been advised to eat five portions of fruit and vegetables a day</t>
   </si>
   <si>
-    <t>a quarter have been advised to reduce sugary drinks</t>
-  </si>
-  <si>
     <t>have received advice on lowering the salt content in their food</t>
   </si>
   <si>
@@ -371,12 +271,6 @@
     <t>Multiple Risk Factors</t>
   </si>
   <si>
-    <t>a third of our population have 3 - 5 risk factors</t>
-  </si>
-  <si>
-    <t>nearly two-thirds of the population have 1-2 risk factors</t>
-  </si>
-  <si>
     <t>of the population have 0 risk factors</t>
   </si>
   <si>
@@ -761,42 +655,12 @@
     <t>de la población tiene hipertensión etapa 2, incluidos quienes toman medicación</t>
   </si>
   <si>
-    <t>ont déjà été diagnostiqués mais ne prennent pas de traitement</t>
-  </si>
-  <si>
-    <t>previamente diagnosticados y no están tomando medicación</t>
-  </si>
-  <si>
-    <t>diagnostiqués et sous traitement, cependant leur tension artérielle n’était pas contrôlée</t>
-  </si>
-  <si>
-    <t>diagnosticados y tomando medicación, pero su presión no está controlada</t>
-  </si>
-  <si>
     <t>diagnostiqués et sous traitement, avec leur tension artérielle contrôlée</t>
   </si>
   <si>
     <t>diagnosticados y tomando medicación, con su presión controlada</t>
   </si>
   <si>
-    <t>non diagnostiqués</t>
-  </si>
-  <si>
-    <t>no han sido diagnosticados</t>
-  </si>
-  <si>
-    <t>hommes non diagnostiqués</t>
-  </si>
-  <si>
-    <t>hombres no diagnosticados</t>
-  </si>
-  <si>
-    <t>femmes non diagnostiquées</t>
-  </si>
-  <si>
-    <t>mujeres no diagnosticadas</t>
-  </si>
-  <si>
     <t>de la population présentent soit une tension artérielle élevée, soit prennent un traitement</t>
   </si>
   <si>
@@ -833,66 +697,18 @@
     <t>de la población informa no haberse medido nunca el nivel de azúcar en sangre</t>
   </si>
   <si>
-    <t>Parmi ceux déjà diagnostiqués diabétiques</t>
-  </si>
-  <si>
-    <t>Entre quienes fueron diagnosticados previamente con diabetes</t>
-  </si>
-  <si>
-    <t>ont reçu au moins deux tests HBA1C au cours de la dernière année dans le cadre du suivi du diabète</t>
-  </si>
-  <si>
-    <t>han recibido al menos dos pruebas de HbA1c en el último año como parte del control de su diabetes</t>
-  </si>
-  <si>
-    <t>n’ont jamais passé d’examen ophtalmologique</t>
-  </si>
-  <si>
-    <t>nunca han tenido un examen ocular</t>
-  </si>
-  <si>
-    <t>n’ont jamais passé d’examen des pieds</t>
-  </si>
-  <si>
-    <t>nunca han tenido un examen de pies</t>
-  </si>
-  <si>
-    <t>Parmi la population dans son ensemble</t>
-  </si>
-  <si>
-    <t>Entre la población general</t>
-  </si>
-  <si>
     <t>ont une glycémie élevée et prennent un traitement</t>
   </si>
   <si>
     <t>tienen glucosa elevada y están tomando medicación</t>
   </si>
   <si>
-    <t>sont diagnostiqués et ne prennent pas de traitement</t>
-  </si>
-  <si>
-    <t>están diagnosticados pero no toman medicación</t>
-  </si>
-  <si>
-    <t>ont une glycémie élevée mais ne sont pas diagnostiqués</t>
-  </si>
-  <si>
-    <t>tienen glucosa elevada pero no han sido diagnosticados</t>
-  </si>
-  <si>
     <t>Cholestérol total élevé</t>
   </si>
   <si>
     <t>Colesterol Total Elevado</t>
   </si>
   <si>
-    <t>n’ont jamais fait mesurer leur cholestérol</t>
-  </si>
-  <si>
-    <t>nunca se han medido el colesterol</t>
-  </si>
-  <si>
     <t>ont déjà été diagnostiqués avec un cholestérol élevé</t>
   </si>
   <si>
@@ -947,24 +763,6 @@
     <t>Enfermedad Cardiovascular</t>
   </si>
   <si>
-    <t>déclarent avoir eu une crise cardiaque ou des douleurs thoraciques liées à une maladie cardiaque (angine) ou un AVC</t>
-  </si>
-  <si>
-    <t>informan haber tenido un infarto, dolor en el pecho por enfermedad cardíaca (angina) o un accidente cerebrovascular</t>
-  </si>
-  <si>
-    <t>Ceci est plus fréquent chez les 45-69 ans</t>
-  </si>
-  <si>
-    <t>Esto es más alto entre los de 45 a 69 años</t>
-  </si>
-  <si>
-    <t>de la population âgée de 45 à 69 ans déclarent prendre de l’aspirine pour prévenir ou traiter une maladie cardiaque</t>
-  </si>
-  <si>
-    <t>de la población de 45 a 69 años informa tomar aspirina para prevenir o tratar enfermedades cardíacas</t>
-  </si>
-  <si>
     <t>Conseils de mode de vie</t>
   </si>
   <si>
@@ -1064,9 +862,6 @@
     <t>of population are current smokers</t>
   </si>
   <si>
-    <t>of current users vape daily</t>
-  </si>
-  <si>
     <t>Tobacco Use</t>
   </si>
   <si>
@@ -1082,9 +877,6 @@
     <t>tob1i1</t>
   </si>
   <si>
-    <t>tob1a1</t>
-  </si>
-  <si>
     <t>tob1i2</t>
   </si>
   <si>
@@ -1202,9 +994,6 @@
     <t>pm1gax1</t>
   </si>
   <si>
-    <t>bm1d1</t>
-  </si>
-  <si>
     <t>of the population have 3 - 5 risk factors</t>
   </si>
   <si>
@@ -1283,23 +1072,185 @@
     <t>Entre los fumadores actuales</t>
   </si>
   <si>
-    <t>pm1c1</t>
-  </si>
-  <si>
-    <t>bp1a1</t>
-  </si>
-  <si>
-    <t>bm1f</t>
-  </si>
-  <si>
     <t>db1a1</t>
+  </si>
+  <si>
+    <t>tob1z1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">report that they </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>have been advised</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to stop smoking by a health care professional</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">prevalence of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>current users of smokeless tobacco</t>
+    </r>
+  </si>
+  <si>
+    <t>prevalence of smokeless tobacco 18-44</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prevalence of smokeless tpbacco  45-69</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>use smokeless tobacco daily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prevalence smokeless tobacco by sex: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean number of standard drinks on one occasion among current drinkers is </t>
+  </si>
+  <si>
+    <t>mean number of days fruits are consumed in a typical week</t>
+  </si>
+  <si>
+    <t>mean number of days vegetables consumed in a typical week</t>
+  </si>
+  <si>
+    <t>of the population do not engage in any transport related activity e.g. walk or cycle as part of commute</t>
+  </si>
+  <si>
+    <t>have been diagnosed with raised BP or currently on medication for raised BP</t>
+  </si>
+  <si>
+    <t>pm1g1</t>
+  </si>
+  <si>
+    <t>of the population either have raised blood pressure or are on medication for it (HTN treatment).</t>
+  </si>
+  <si>
+    <t>bm1e1</t>
+  </si>
+  <si>
+    <t>of the population were previously diagnosed among those with raised blood sugar or currently on medication for diabetes</t>
+  </si>
+  <si>
+    <t>bm1n1</t>
+  </si>
+  <si>
+    <t>bm1o1</t>
+  </si>
+  <si>
+    <t>bm1j1</t>
+  </si>
+  <si>
+    <t>bm1l1</t>
+  </si>
+  <si>
+    <t>bm1k1</t>
+  </si>
+  <si>
+    <t>bm1m1</t>
+  </si>
+  <si>
+    <t>have less than ten percent of a 10-year CVD risk</t>
+  </si>
+  <si>
+    <t>have a 10-year CVD risk ≥20% or with existing CVD</t>
+  </si>
+  <si>
+    <t>of eligible persons receiving drug therapy and counselling to prevent heart attacks and strokes</t>
+  </si>
+  <si>
+    <t>cvd1riska1</t>
+  </si>
+  <si>
+    <t>cvd1riskb1</t>
+  </si>
+  <si>
+    <t>cvd1riskc1</t>
+  </si>
+  <si>
+    <t>avoir un risque cardiovasculaire à 10 ans inférieur à dix pour cent</t>
+  </si>
+  <si>
+    <t>avoir un risque cardiovasculaire à 10 ans ≥20 % ou une maladie cardiovasculaire existante</t>
+  </si>
+  <si>
+    <t>des personnes admissibles recevant un traitement médicamenteux et des conseils pour prévenir les crises cardiaques et les AVC</t>
+  </si>
+  <si>
+    <t>tener un riesgo cardiovascular a 10 años inferior al diez por ciento</t>
+  </si>
+  <si>
+    <t>tener un riesgo cardiovascular a 10 años ≥20 % o una enfermedad cardiovascular existente</t>
+  </si>
+  <si>
+    <t>de las personas elegibles que reciben tratamiento farmacológico y asesoramiento para prevenir infartos y accidentes cerebrovasculares</t>
+  </si>
+  <si>
+    <t>of population are  smokers</t>
+  </si>
+  <si>
+    <t>bm1f1</t>
+  </si>
+  <si>
+    <t>bm18d1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1328,8 +1279,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1354,6 +1319,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1367,7 +1344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1377,18 +1354,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1703,10 +1677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773036CE-016D-FE40-B5BF-2775730B9CD1}">
-  <dimension ref="A1:D139"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1731,1415 +1705,1102 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
-        <v>341</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B3" t="s">
-        <v>342</v>
+        <v>274</v>
       </c>
       <c r="C3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D3">
-        <v>0.7</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B4" t="s">
-        <v>343</v>
+        <v>275</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>0.18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B5" t="s">
-        <v>344</v>
+        <v>276</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>6.7000000000000004E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>338</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>345</v>
+        <v>277</v>
       </c>
       <c r="B7" t="s">
-        <v>342</v>
+        <v>274</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>0.8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>347</v>
+        <v>278</v>
       </c>
       <c r="B8" t="s">
-        <v>342</v>
+        <v>274</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>0.17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>349</v>
+        <v>280</v>
       </c>
       <c r="B9" t="s">
-        <v>342</v>
+        <v>274</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>0.16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>348</v>
+        <v>279</v>
       </c>
       <c r="B10" t="s">
-        <v>342</v>
+        <v>274</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10">
-        <v>7.1999999999999995E-2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>350</v>
+        <v>281</v>
       </c>
       <c r="B11" t="s">
-        <v>342</v>
+        <v>274</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>0.11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>351</v>
+        <v>282</v>
       </c>
       <c r="B12" t="s">
-        <v>342</v>
+        <v>274</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12">
-        <v>0.55000000000000004</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>352</v>
+        <v>283</v>
       </c>
       <c r="B13" t="s">
-        <v>342</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13">
-        <v>0.28000000000000003</v>
+        <v>274</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>360</v>
+        <v>291</v>
       </c>
       <c r="B14" t="s">
-        <v>342</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14">
-        <v>8.4000000000000005E-2</v>
+        <v>274</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>360</v>
+        <v>291</v>
       </c>
       <c r="B15" t="s">
-        <v>354</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15">
-        <v>0.13</v>
+        <v>285</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>360</v>
+        <v>291</v>
       </c>
       <c r="B16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>291</v>
+      </c>
+      <c r="B18" t="s">
+        <v>287</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>291</v>
+      </c>
+      <c r="B19" t="s">
+        <v>288</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>291</v>
+      </c>
+      <c r="B20" t="s">
+        <v>289</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>291</v>
+      </c>
+      <c r="B21" t="s">
+        <v>290</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>284</v>
+      </c>
+      <c r="B23" t="s">
+        <v>274</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>292</v>
+      </c>
+      <c r="B26" t="s">
+        <v>274</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>292</v>
+      </c>
+      <c r="B27" t="s">
+        <v>275</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>292</v>
+      </c>
+      <c r="B28" t="s">
+        <v>276</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>292</v>
+      </c>
+      <c r="B29" t="s">
+        <v>285</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>292</v>
+      </c>
+      <c r="B30" t="s">
+        <v>286</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>293</v>
+      </c>
+      <c r="B32" t="s">
+        <v>274</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>294</v>
+      </c>
+      <c r="B33" t="s">
+        <v>274</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>295</v>
+      </c>
+      <c r="B34" t="s">
+        <v>274</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>295</v>
+      </c>
+      <c r="B35" t="s">
+        <v>275</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>295</v>
+      </c>
+      <c r="B36" t="s">
+        <v>276</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>296</v>
+      </c>
+      <c r="B37" t="s">
+        <v>274</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>295</v>
+      </c>
+      <c r="B39" t="s">
+        <v>287</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>297</v>
+      </c>
+      <c r="B42" t="s">
+        <v>274</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>298</v>
+      </c>
+      <c r="B43" t="s">
+        <v>274</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>299</v>
+      </c>
+      <c r="B44" t="s">
+        <v>274</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>300</v>
+      </c>
+      <c r="B45" t="s">
+        <v>274</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>300</v>
+      </c>
+      <c r="B46" t="s">
+        <v>285</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>300</v>
+      </c>
+      <c r="B47" t="s">
+        <v>286</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>302</v>
+      </c>
+      <c r="B49" t="s">
+        <v>274</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>302</v>
+      </c>
+      <c r="B50" t="s">
+        <v>275</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>302</v>
+      </c>
+      <c r="B51" t="s">
+        <v>276</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>303</v>
+      </c>
+      <c r="B53" t="s">
+        <v>274</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>303</v>
+      </c>
+      <c r="B54" t="s">
+        <v>285</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>303</v>
+      </c>
+      <c r="B55" t="s">
+        <v>286</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>304</v>
+      </c>
+      <c r="B58" t="s">
+        <v>274</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>304</v>
+      </c>
+      <c r="B59" t="s">
+        <v>275</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>304</v>
+      </c>
+      <c r="B60" t="s">
+        <v>276</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>305</v>
+      </c>
+      <c r="B61" t="s">
+        <v>275</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>305</v>
+      </c>
+      <c r="B62" t="s">
+        <v>276</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>307</v>
+      </c>
+      <c r="B63" t="s">
+        <v>274</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>306</v>
+      </c>
+      <c r="B64" t="s">
+        <v>274</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>308</v>
+      </c>
+      <c r="B65" t="s">
+        <v>274</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>309</v>
+      </c>
+      <c r="B66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C68" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>310</v>
+      </c>
+      <c r="B69" t="s">
+        <v>274</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>310</v>
+      </c>
+      <c r="B70" t="s">
+        <v>275</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>310</v>
+      </c>
+      <c r="B71" t="s">
+        <v>276</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>311</v>
+      </c>
+      <c r="B72" t="s">
+        <v>274</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>311</v>
+      </c>
+      <c r="B73" t="s">
+        <v>275</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>311</v>
+      </c>
+      <c r="B74" t="s">
+        <v>276</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>312</v>
+      </c>
+      <c r="B75" t="s">
+        <v>274</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C78" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>313</v>
+      </c>
+      <c r="B79" t="s">
+        <v>274</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>360</v>
-      </c>
-      <c r="B18" t="s">
-        <v>356</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>360</v>
-      </c>
-      <c r="B19" t="s">
-        <v>357</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>360</v>
-      </c>
-      <c r="B20" t="s">
-        <v>358</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>360</v>
-      </c>
-      <c r="B21" t="s">
-        <v>359</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>353</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D23">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C25" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>361</v>
-      </c>
-      <c r="B26" t="s">
-        <v>342</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>361</v>
-      </c>
-      <c r="B27" t="s">
-        <v>343</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>361</v>
-      </c>
-      <c r="B28" t="s">
-        <v>344</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>361</v>
-      </c>
-      <c r="B29" t="s">
-        <v>354</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>361</v>
-      </c>
-      <c r="B30" t="s">
-        <v>355</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>362</v>
-      </c>
-      <c r="B32" t="s">
-        <v>342</v>
-      </c>
-      <c r="C32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32">
-        <v>9.9000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>363</v>
-      </c>
-      <c r="B33" t="s">
-        <v>342</v>
-      </c>
-      <c r="C33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>364</v>
-      </c>
-      <c r="B34" t="s">
-        <v>342</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>364</v>
-      </c>
-      <c r="B35" t="s">
-        <v>343</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>364</v>
-      </c>
-      <c r="B36" t="s">
-        <v>344</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>365</v>
-      </c>
-      <c r="B37" t="s">
-        <v>342</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>364</v>
-      </c>
-      <c r="B39" t="s">
-        <v>356</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C41" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>366</v>
-      </c>
-      <c r="B42" t="s">
-        <v>342</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>367</v>
-      </c>
-      <c r="B43" t="s">
-        <v>342</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>368</v>
-      </c>
-      <c r="B44" t="s">
-        <v>342</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>369</v>
-      </c>
-      <c r="B45" t="s">
-        <v>342</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>369</v>
-      </c>
-      <c r="B46" t="s">
-        <v>354</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D46">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>369</v>
-      </c>
-      <c r="B47" t="s">
-        <v>355</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>371</v>
-      </c>
-      <c r="B49" t="s">
-        <v>342</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="D49">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>371</v>
-      </c>
-      <c r="B50" t="s">
-        <v>343</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D50">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>371</v>
-      </c>
-      <c r="B51" t="s">
-        <v>344</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D51">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>372</v>
-      </c>
-      <c r="B53" t="s">
-        <v>342</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>372</v>
-      </c>
-      <c r="B54" t="s">
-        <v>354</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D54">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>372</v>
-      </c>
-      <c r="B55" t="s">
-        <v>355</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D55">
-        <v>8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C57" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>373</v>
-      </c>
-      <c r="B58" t="s">
-        <v>342</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D58">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>373</v>
-      </c>
-      <c r="B59" t="s">
-        <v>343</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D59">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>373</v>
-      </c>
-      <c r="B60" t="s">
-        <v>344</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D60">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>374</v>
-      </c>
-      <c r="B61" t="s">
-        <v>343</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D61">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>374</v>
-      </c>
-      <c r="B62" t="s">
-        <v>344</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D62">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>375</v>
-      </c>
-      <c r="B63" t="s">
-        <v>342</v>
-      </c>
-      <c r="C63" s="4" t="s">
+    </row>
+    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>314</v>
+      </c>
+      <c r="B80" t="s">
+        <v>274</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="D63">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>376</v>
-      </c>
-      <c r="B64" t="s">
-        <v>342</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D64">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>377</v>
-      </c>
-      <c r="B65" t="s">
-        <v>342</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D65">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>378</v>
-      </c>
-      <c r="B66" t="s">
-        <v>342</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D66">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C68" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>379</v>
-      </c>
-      <c r="B69" t="s">
-        <v>342</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D69">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>379</v>
-      </c>
-      <c r="B70" t="s">
-        <v>343</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D70">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>379</v>
-      </c>
-      <c r="B71" t="s">
-        <v>344</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D71">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>380</v>
-      </c>
-      <c r="B72" t="s">
-        <v>342</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D72">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>380</v>
-      </c>
-      <c r="B73" t="s">
-        <v>343</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D73">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>380</v>
-      </c>
-      <c r="B74" t="s">
-        <v>344</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D74">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>381</v>
-      </c>
-      <c r="B75" t="s">
-        <v>342</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D75">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C78" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>382</v>
-      </c>
-      <c r="B79" t="s">
-        <v>342</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D79">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>383</v>
-      </c>
-      <c r="B80" t="s">
-        <v>342</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D80">
-        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>384</v>
+        <v>315</v>
       </c>
       <c r="B81" t="s">
-        <v>342</v>
+        <v>274</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D81">
-        <v>0.18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="C82" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D82" s="6">
-        <v>0.15</v>
+      <c r="A82" t="s">
+        <v>316</v>
+      </c>
+      <c r="B82" t="s">
+        <v>274</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>413</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D83" s="10">
-        <v>0.23</v>
+        <v>356</v>
+      </c>
+      <c r="B83" t="s">
+        <v>274</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="B84" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D84">
-        <v>0.27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>414</v>
+        <v>356</v>
       </c>
       <c r="B85" t="s">
-        <v>342</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D85">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>414</v>
-      </c>
-      <c r="B86" t="s">
-        <v>343</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D86">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>414</v>
-      </c>
-      <c r="B87" t="s">
-        <v>344</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D87">
-        <v>0.24</v>
+        <v>286</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C86" s="4"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C87" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="B88" t="s">
-        <v>342</v>
+        <v>274</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D88">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>385</v>
+        <v>343</v>
       </c>
       <c r="B89" t="s">
-        <v>354</v>
+        <v>274</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D89">
-        <v>0.17</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B90" t="s">
-        <v>355</v>
+        <v>274</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D90">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C91" s="4"/>
+        <v>57</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C92" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>360</v>
+      </c>
+      <c r="B93" t="s">
+        <v>274</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D93" s="5"/>
+    </row>
+    <row r="94" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>361</v>
+      </c>
+      <c r="B94" t="s">
+        <v>274</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D94" s="5"/>
+    </row>
+    <row r="95" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A95" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="B95" t="s">
+        <v>274</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D95" s="5"/>
+    </row>
+    <row r="96" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A96" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="B96" t="s">
+        <v>274</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D96" s="5"/>
+    </row>
+    <row r="97" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="B97" t="s">
+        <v>275</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D97" s="5"/>
+    </row>
+    <row r="98" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="B98" t="s">
+        <v>276</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D98" s="5"/>
+    </row>
+    <row r="99" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="B99" t="s">
+        <v>274</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D99" s="5"/>
+    </row>
+    <row r="100" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="B100" t="s">
+        <v>274</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D100" s="5"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C102" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="B103" t="s">
+        <v>274</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D103" s="5"/>
+    </row>
+    <row r="104" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>370</v>
+      </c>
+      <c r="B104" t="s">
+        <v>274</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D104" s="5"/>
+    </row>
+    <row r="105" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>371</v>
+      </c>
+      <c r="B105" t="s">
+        <v>274</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="D105" s="5"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C107" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>324</v>
+      </c>
+      <c r="B108" t="s">
+        <v>274</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>325</v>
+      </c>
+      <c r="B109" t="s">
+        <v>274</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>327</v>
+      </c>
+      <c r="B110" t="s">
+        <v>274</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>328</v>
+      </c>
+      <c r="B111" t="s">
+        <v>274</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>329</v>
+      </c>
+      <c r="B112" t="s">
+        <v>274</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>330</v>
+      </c>
+      <c r="B113" t="s">
+        <v>274</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>331</v>
+      </c>
+      <c r="B114" t="s">
+        <v>274</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C116" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>386</v>
-      </c>
-      <c r="B93" t="s">
-        <v>342</v>
-      </c>
-      <c r="C93" s="4" t="s">
+    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>319</v>
+      </c>
+      <c r="B117" t="s">
+        <v>274</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>320</v>
+      </c>
+      <c r="B118" t="s">
+        <v>274</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>321</v>
+      </c>
+      <c r="B119" t="s">
+        <v>274</v>
+      </c>
+      <c r="C119" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D93">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>416</v>
-      </c>
-      <c r="B94" t="s">
-        <v>342</v>
-      </c>
-      <c r="C94" s="9" t="s">
+    </row>
+    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>322</v>
+      </c>
+      <c r="B120" t="s">
+        <v>274</v>
+      </c>
+      <c r="C120" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D94" s="10">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="C95" s="4" t="s">
+    </row>
+    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>323</v>
+      </c>
+      <c r="B121" t="s">
+        <v>274</v>
+      </c>
+      <c r="C121" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="C96" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D96" s="6">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="C97" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D97" s="6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="C98" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D98" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="C99" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D99" s="6"/>
-    </row>
-    <row r="100" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>415</v>
-      </c>
-      <c r="B100" t="s">
-        <v>342</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D100" s="10">
-        <v>7.8E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="C101" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D101" s="6">
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="C102" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D102" s="6">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C104" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="C105" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D105" s="6">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="C106" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D106" s="6">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C107" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D107" s="6">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="C108" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D108" s="6">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="C109" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D109" s="6">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="C110" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D110" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="C111" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D111" s="6">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="C112" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D112" s="6">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="C113" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D113" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C115" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="C116" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D116" s="6">
-        <v>3.6999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="C117" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D117" s="6">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="C118" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D118" s="6">
-        <v>9.7000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C120" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>394</v>
-      </c>
-      <c r="B121" t="s">
-        <v>342</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D121">
-        <v>8.3000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>395</v>
-      </c>
-      <c r="B122" t="s">
-        <v>342</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D122">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>397</v>
-      </c>
-      <c r="B123" t="s">
-        <v>342</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="D123">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>398</v>
-      </c>
-      <c r="B124" t="s">
-        <v>342</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D124">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>399</v>
-      </c>
-      <c r="B125" t="s">
-        <v>342</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D125">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>400</v>
-      </c>
-      <c r="B126" t="s">
-        <v>342</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D126">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>401</v>
-      </c>
-      <c r="B127" t="s">
-        <v>342</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D127">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C129" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>389</v>
-      </c>
-      <c r="B130" t="s">
-        <v>342</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="D130">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>390</v>
-      </c>
-      <c r="B131" t="s">
-        <v>342</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="D131">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>391</v>
-      </c>
-      <c r="B132" t="s">
-        <v>342</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D132">
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>392</v>
-      </c>
-      <c r="B133" t="s">
-        <v>342</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D133">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>393</v>
-      </c>
-      <c r="B134" t="s">
-        <v>342</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D134">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="C136" s="7" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C137" t="s">
+    <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C123" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C124" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C125" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C138" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C139" t="s">
-        <v>408</v>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C126" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -3150,10 +2811,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14325372-24F7-AD49-AB77-733D60DE2475}">
-  <dimension ref="A1:C139"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137:A139"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A90" sqref="A90:XFD91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3165,1347 +2826,1204 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>273</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>272</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>338</v>
+        <v>271</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>411</v>
+        <v>341</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>412</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>14</v>
+      <c r="A13" s="8" t="s">
+        <v>345</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>15</v>
+      <c r="A14" s="5" t="s">
+        <v>346</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>16</v>
+      <c r="A15" s="10" t="s">
+        <v>347</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>17</v>
+      <c r="A16" s="9" t="s">
+        <v>348</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>18</v>
+      <c r="A17" s="9" t="s">
+        <v>350</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>349</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>33</v>
+        <v>351</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>37</v>
+        <v>353</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>42</v>
+        <v>301</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>50</v>
+        <v>354</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>63</v>
+        <v>355</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>67</v>
+        <v>357</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="4"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>72</v>
+        <v>359</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="4"/>
+        <v>219</v>
+      </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>87</v>
+        <v>368</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>281</v>
+        <v>374</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>92</v>
+        <v>326</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>295</v>
+        <v>250</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>297</v>
+        <v>252</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>302</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>98</v>
+        <v>317</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>303</v>
+        <v>258</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>99</v>
+        <v>318</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>305</v>
+        <v>260</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A120" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A122" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A123" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A124" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A125" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A126" s="4" t="s">
-        <v>106</v>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A123" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>268</v>
+      </c>
+      <c r="B124" t="s">
+        <v>269</v>
+      </c>
+      <c r="C124" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>335</v>
+      </c>
+      <c r="B125" t="s">
+        <v>336</v>
+      </c>
+      <c r="C125" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>338</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A127" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A130" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A131" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A132" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A133" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A134" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A136" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>335</v>
-      </c>
-      <c r="B137" t="s">
-        <v>336</v>
-      </c>
-      <c r="C137" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>405</v>
-      </c>
-      <c r="B138" t="s">
-        <v>406</v>
-      </c>
-      <c r="C138" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>408</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>410</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/STEPS_data_analysis/excel_templates/template_data_fromR.xlsx
+++ b/STEPS_data_analysis/excel_templates/template_data_fromR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\R\GitHub current\STEPS_data_analysis\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B306E4DC-F12B-4D53-9E00-1BBF3E93CD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D86C8FA-A2C4-4B0A-9376-B6FC877B2E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="1500" windowWidth="14670" windowHeight="13020" xr2:uid="{8873D99E-472C-1247-B72B-045F9E2BE3D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8873D99E-472C-1247-B72B-045F9E2BE3D4}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="238">
   <si>
     <t>ind_level</t>
   </si>
@@ -87,18 +87,12 @@
     <t>Body Mass Index</t>
   </si>
   <si>
-    <t>of the population are obese</t>
-  </si>
-  <si>
     <t>of women are obese</t>
   </si>
   <si>
     <t>of men are obese</t>
   </si>
   <si>
-    <t>of the population are overweight</t>
-  </si>
-  <si>
     <t>of women are overweight</t>
   </si>
   <si>
@@ -114,12 +108,6 @@
     <t>Raised Total Cholesterol</t>
   </si>
   <si>
-    <t>of men have low HDL (good cholesterol)</t>
-  </si>
-  <si>
-    <t>of women have low HDL (good cholesterol)</t>
-  </si>
-  <si>
     <t>Cardiovascular Disease</t>
   </si>
   <si>
@@ -129,9 +117,6 @@
     <t>of the population have 0 risk factors</t>
   </si>
   <si>
-    <t>english</t>
-  </si>
-  <si>
     <t>french</t>
   </si>
   <si>
@@ -423,9 +408,6 @@
     <t>hours</t>
   </si>
   <si>
-    <t>of the population have raised blood pressure or are currently on medication for raised blood pressure</t>
-  </si>
-  <si>
     <t>Of those …</t>
   </si>
   <si>
@@ -441,18 +423,12 @@
     <t>bm1d1</t>
   </si>
   <si>
-    <t>of the population have raised blood sugar or are currently on medication for diabetes</t>
-  </si>
-  <si>
     <t>are currently receiving treatment</t>
   </si>
   <si>
     <t>of the population have never had their blood sugar measured</t>
   </si>
   <si>
-    <t>of the population have raised total cholesterol</t>
-  </si>
-  <si>
     <t>bm17c1</t>
   </si>
   <si>
@@ -480,9 +456,6 @@
     <t>were advised to eat at least five portions of fruit and vegetables a day</t>
   </si>
   <si>
-    <t>were advised to reduce sugary drinks</t>
-  </si>
-  <si>
     <t>were advised to lower the salt content in their food</t>
   </si>
   <si>
@@ -729,20 +702,62 @@
     <t>bm1l1</t>
   </si>
   <si>
-    <t>of the population aged 18-69 have 3 to 5 risk factors</t>
-  </si>
-  <si>
-    <t>of the population aged 18-69 have 0 risk factors</t>
-  </si>
-  <si>
-    <t>of the population aged 18-69 have 1 to 2 risk factors</t>
+    <t>of the population are overweight*</t>
+  </si>
+  <si>
+    <t>of the population are obese**</t>
+  </si>
+  <si>
+    <t>* BMI ≥ 25</t>
+  </si>
+  <si>
+    <t>** BMI ≥ 30</t>
+  </si>
+  <si>
+    <t>of the population have raised blood pressure* or are currently on medication for raised blood pressure</t>
+  </si>
+  <si>
+    <t>* SBP ≥ 140 and/or DBP ≥ 90 mmHg</t>
+  </si>
+  <si>
+    <t>of the population have raised blood sugar* or are currently on medication for diabetes</t>
+  </si>
+  <si>
+    <t>* ≥ 126 mg/dl</t>
+  </si>
+  <si>
+    <t>of the population have raised total cholesterol* or currently on medication for raised cholesterol</t>
+  </si>
+  <si>
+    <t>of men have low HDL** (good cholesterol)</t>
+  </si>
+  <si>
+    <t>of women have low HDL*** (good cholesterol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* ≥ 190 mg/dl </t>
+  </si>
+  <si>
+    <t>** &lt; 40 mg/d</t>
+  </si>
+  <si>
+    <t>*** &lt; 50 mg/d</t>
+  </si>
+  <si>
+    <t>were advised to reduce sugary beverages in their diet</t>
+  </si>
+  <si>
+    <t>* IMC ≥ 25</t>
+  </si>
+  <si>
+    <t>** IMC ≥ 30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -791,19 +806,32 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -824,10 +852,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -843,6 +870,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1157,148 +1189,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773036CE-016D-FE40-B5BF-2775730B9CD1}">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="58.625" customWidth="1"/>
-    <col min="4" max="4" width="11" style="8"/>
+    <col min="4" max="4" width="11" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>228</v>
+      <c r="C1" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -1306,724 +1336,703 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>109</v>
+        <v>40</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>103</v>
+        <v>40</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>107</v>
+        <v>40</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="6" t="s">
-        <v>110</v>
+      <c r="C24" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="6" t="s">
-        <v>111</v>
+      <c r="C26" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>112</v>
+        <v>40</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="7" t="s">
-        <v>113</v>
+      <c r="C32" s="6" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>90</v>
+        <v>40</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>91</v>
+        <v>40</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>114</v>
+        <v>40</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>116</v>
+        <v>40</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>117</v>
+        <v>40</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="7" t="s">
-        <v>118</v>
+      <c r="C42" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="7" t="s">
-        <v>119</v>
+      <c r="C43" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>120</v>
+        <v>41</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>120</v>
+        <v>42</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>121</v>
+        <v>41</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>121</v>
+        <v>42</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>122</v>
+        <v>40</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>123</v>
+        <v>40</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>124</v>
+        <v>40</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>125</v>
+        <v>40</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="7" t="s">
-        <v>126</v>
+      <c r="C52" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="7" t="s">
-        <v>127</v>
+      <c r="C53" s="6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>45</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>19</v>
+        <v>40</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>21</v>
+        <v>41</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>20</v>
+        <v>42</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>45</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>16</v>
+        <v>40</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>46</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>18</v>
+        <v>41</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>17</v>
+        <v>42</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="6" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C63" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>74</v>
-      </c>
-      <c r="B64" t="s">
-        <v>45</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>128</v>
+      <c r="C63" s="6" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C65" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>45</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>130</v>
+        <v>40</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>75</v>
-      </c>
-      <c r="B67" t="s">
-        <v>45</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>131</v>
+      <c r="C67" s="6" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B68" t="s">
-        <v>45</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>132</v>
+        <v>40</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C69" s="7"/>
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C70" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>133</v>
-      </c>
-      <c r="B71" t="s">
-        <v>45</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>134</v>
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="6" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>95</v>
-      </c>
-      <c r="B72" t="s">
-        <v>45</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>135</v>
-      </c>
+      <c r="C72" s="6"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>89</v>
-      </c>
-      <c r="B73" t="s">
-        <v>45</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C74" s="7"/>
+      <c r="C73" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C75" s="2" t="s">
-        <v>24</v>
+      <c r="A75" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="6"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C79" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>220</v>
+      </c>
+      <c r="B80" t="s">
+        <v>40</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B76" t="s">
-        <v>45</v>
-      </c>
-      <c r="C76" s="7" t="s">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B81" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="10"/>
+      <c r="C83" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="10"/>
+      <c r="C84" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="10"/>
+      <c r="C85" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" t="s">
+        <v>40</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>40</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C93" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>75</v>
+      </c>
+      <c r="B94" t="s">
+        <v>40</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>78</v>
+      </c>
+      <c r="B95" t="s">
+        <v>40</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>76</v>
+      </c>
+      <c r="B96" t="s">
+        <v>40</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="B77" t="s">
-        <v>46</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B78" t="s">
-        <v>47</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C80" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>93</v>
-      </c>
-      <c r="B81" t="s">
-        <v>45</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C82" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>94</v>
-      </c>
-      <c r="B83" t="s">
-        <v>45</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C85" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C86" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>80</v>
-      </c>
-      <c r="B87" t="s">
-        <v>45</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>83</v>
-      </c>
-      <c r="B88" t="s">
-        <v>45</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>81</v>
-      </c>
-      <c r="B89" t="s">
-        <v>45</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>84</v>
-      </c>
-      <c r="B90" t="s">
-        <v>45</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>85</v>
-      </c>
-      <c r="B91" t="s">
-        <v>45</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>86</v>
-      </c>
-      <c r="B92" t="s">
-        <v>45</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>82</v>
-      </c>
-      <c r="B93" t="s">
-        <v>45</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C95" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>77</v>
-      </c>
-      <c r="B96" t="s">
-        <v>45</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B97" t="s">
-        <v>45</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>232</v>
+        <v>40</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B98" t="s">
-        <v>45</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>231</v>
+        <v>40</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B99" t="s">
-        <v>55</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>154</v>
+        <v>40</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2031,24 +2040,85 @@
         <v>77</v>
       </c>
       <c r="B100" t="s">
-        <v>56</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>155</v>
+        <v>40</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C102" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>72</v>
+      </c>
+      <c r="B103" t="s">
+        <v>40</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>73</v>
+      </c>
+      <c r="B104" t="s">
+        <v>40</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>74</v>
+      </c>
+      <c r="B105" t="s">
+        <v>40</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>72</v>
+      </c>
+      <c r="B106" t="s">
+        <v>50</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>72</v>
+      </c>
+      <c r="B107" t="s">
+        <v>51</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14325372-24F7-AD49-AB77-733D60DE2475}">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2058,99 +2128,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>31</v>
+      <c r="A1" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>158</v>
+      <c r="B4" s="5" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>159</v>
+      <c r="B5" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2158,87 +2228,87 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>167</v>
+      <c r="A14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>168</v>
+      <c r="A15" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>169</v>
+      <c r="A16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>170</v>
+      <c r="B18" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>158</v>
+      <c r="B20" s="5" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>159</v>
+      <c r="B21" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>171</v>
+      <c r="B22" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>172</v>
+      <c r="B23" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>173</v>
+      <c r="A24" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2246,543 +2316,599 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" s="7" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B44" s="7" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B46" s="7" t="s">
+    <row r="66" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B48" s="7" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B49" s="7" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B50" s="7" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B51" s="7" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B53" s="7" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55" s="2" t="s">
+    <row r="74" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B60" s="7" t="s">
+    <row r="80" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B77" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
+      <c r="B105" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B87" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
+      <c r="B106" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B89" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B93" s="7" t="s">
+      <c r="B107" s="6" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/STEPS_data_analysis/excel_templates/template_data_fromR.xlsx
+++ b/STEPS_data_analysis/excel_templates/template_data_fromR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\R\GitHub current\STEPS_data_analysis\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D86C8FA-A2C4-4B0A-9376-B6FC877B2E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1AAC0E-1284-49AE-979B-E8FEE20D4270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8873D99E-472C-1247-B72B-045F9E2BE3D4}"/>
+    <workbookView xWindow="2220" yWindow="1470" windowWidth="26460" windowHeight="13890" activeTab="1" xr2:uid="{8873D99E-472C-1247-B72B-045F9E2BE3D4}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="239">
   <si>
     <t>ind_level</t>
   </si>
@@ -751,6 +751,9 @@
   </si>
   <si>
     <t>** IMC ≥ 30</t>
+  </si>
+  <si>
+    <t>english</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773036CE-016D-FE40-B5BF-2775730B9CD1}">
   <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2117,9 +2120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14325372-24F7-AD49-AB77-733D60DE2475}">
   <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2129,7 +2130,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>26</v>

--- a/STEPS_data_analysis/excel_templates/template_data_fromR.xlsx
+++ b/STEPS_data_analysis/excel_templates/template_data_fromR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\R\GitHub current\STEPS_data_analysis\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1AAC0E-1284-49AE-979B-E8FEE20D4270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4032CB3-E088-430E-84BD-7BC42A48696D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="1470" windowWidth="26460" windowHeight="13890" activeTab="1" xr2:uid="{8873D99E-472C-1247-B72B-045F9E2BE3D4}"/>
+    <workbookView xWindow="29700" yWindow="450" windowWidth="26460" windowHeight="13890" xr2:uid="{8873D99E-472C-1247-B72B-045F9E2BE3D4}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -114,9 +114,6 @@
     <t>Multiple Risk Factors</t>
   </si>
   <si>
-    <t>of the population have 0 risk factors</t>
-  </si>
-  <si>
     <t>french</t>
   </si>
   <si>
@@ -468,12 +465,6 @@
     <t>were advised to maintain healthy weight/lose weight</t>
   </si>
   <si>
-    <t>of the population have 3 to 5 risk factors</t>
-  </si>
-  <si>
-    <t>of the population have 1to 2 risk factors</t>
-  </si>
-  <si>
     <t>of 18-44 year olds have 3 to 5 risk factors</t>
   </si>
   <si>
@@ -678,15 +669,6 @@
     <t>ont été conseillés de maintenir un poids santé/de perdre du poids</t>
   </si>
   <si>
-    <t>de la population présentent 3 à 5 facteurs de risque</t>
-  </si>
-  <si>
-    <t>de la population présentent 1 à 2 facteurs de risque</t>
-  </si>
-  <si>
-    <t>de la population ne présente aucun facteur de risque</t>
-  </si>
-  <si>
     <t>des personnes âgées de 18 à 44 ans présentent de 3 à 5 facteurs de risque</t>
   </si>
   <si>
@@ -754,6 +736,24 @@
   </si>
   <si>
     <t>english</t>
+  </si>
+  <si>
+    <t>of the population aged 18-69 years have 3 to 5 risk factors</t>
+  </si>
+  <si>
+    <t>of the population aged 18-69 years have 1 to 2 risk factors</t>
+  </si>
+  <si>
+    <t>of the population aged 18-69 years have 0 risk factors</t>
+  </si>
+  <si>
+    <t>de la population âgées de 18 à 69 ans présentent 1 à 2 facteurs de risque</t>
+  </si>
+  <si>
+    <t>de la population âgées de 18 à 69 ans présentent 3 à 5 facteurs de risque</t>
+  </si>
+  <si>
+    <t>de la population âgées de 18 à 69 ans ne présente aucun facteur de risque</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1194,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773036CE-016D-FE40-B5BF-2775730B9CD1}">
   <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1211,34 +1213,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
         <v>91</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>2</v>
@@ -1246,10 +1248,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>3</v>
@@ -1257,81 +1259,81 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -1339,35 +1341,35 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1377,21 +1379,21 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>2</v>
@@ -1399,10 +1401,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>3</v>
@@ -1410,10 +1412,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>6</v>
@@ -1421,10 +1423,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>7</v>
@@ -1432,15 +1434,15 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C24" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
@@ -1448,26 +1450,26 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C26" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>9</v>
@@ -1475,10 +1477,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>10</v>
@@ -1491,37 +1493,37 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C32" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>12</v>
@@ -1529,10 +1531,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>13</v>
@@ -1540,24 +1542,24 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="B38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1567,121 +1569,121 @@
     </row>
     <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C42" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C43" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C52" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C53" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1691,21 +1693,21 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>19</v>
@@ -1713,10 +1715,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>18</v>
@@ -1724,21 +1726,21 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>17</v>
@@ -1746,10 +1748,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>16</v>
@@ -1757,12 +1759,12 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C62" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C63" s="6" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1772,56 +1774,56 @@
     </row>
     <row r="66" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C67" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C71" s="6" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1834,40 +1836,40 @@
     </row>
     <row r="74" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C77" s="6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1880,53 +1882,53 @@
     </row>
     <row r="80" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="C83" s="6" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="C84" s="6" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="C85" s="6" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1937,116 +1939,116 @@
     </row>
     <row r="88" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C89" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C92" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C93" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B99" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -2056,57 +2058,57 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>143</v>
+        <v>233</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>144</v>
+        <v>234</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B105" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>25</v>
+        <v>235</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B106" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B107" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2120,7 +2122,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14325372-24F7-AD49-AB77-733D60DE2475}">
   <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103:A105"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2130,26 +2134,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2157,7 +2161,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2165,63 +2169,63 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2229,31 +2233,31 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2261,15 +2265,15 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2277,7 +2281,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2285,7 +2289,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2293,7 +2297,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2301,15 +2305,15 @@
         <v>7</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2317,23 +2321,23 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2341,7 +2345,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2349,7 +2353,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2357,31 +2361,31 @@
         <v>11</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -2389,7 +2393,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2397,23 +2401,23 @@
         <v>13</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2421,111 +2425,111 @@
         <v>14</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2533,15 +2537,15 @@
         <v>15</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2549,7 +2553,7 @@
         <v>19</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2557,15 +2561,15 @@
         <v>18</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2573,7 +2577,7 @@
         <v>17</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2581,23 +2585,23 @@
         <v>16</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2605,55 +2609,55 @@
         <v>20</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2665,39 +2669,39 @@
         <v>21</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2709,55 +2713,55 @@
         <v>22</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2765,103 +2769,103 @@
         <v>23</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2869,47 +2873,47 @@
         <v>24</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>143</v>
+        <v>233</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>144</v>
+        <v>234</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
